--- a/lll/博雅定制企业IM-2.xlsx
+++ b/lll/博雅定制企业IM-2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <r>
       <t>1.</t>
@@ -263,6 +264,9 @@
   </si>
   <si>
     <t>把“我-设置-修改密码”栏删去</t>
+  </si>
+  <si>
+    <t>lllllllllllll</t>
   </si>
 </sst>
 </file>
@@ -676,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -943,4 +947,27 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/lll/博雅定制企业IM-2.xlsx
+++ b/lll/博雅定制企业IM-2.xlsx
@@ -951,15 +951,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>44</v>
+      </c>
+      <c r="B1">
+        <v>11111</v>
       </c>
     </row>
   </sheetData>

--- a/lll/博雅定制企业IM-2.xlsx
+++ b/lll/博雅定制企业IM-2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <r>
       <t>1.</t>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>lllllllllllll</t>
+  </si>
+  <si>
+    <t>的撒范德萨</t>
   </si>
 </sst>
 </file>
@@ -951,20 +954,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
       <c r="B1">
         <v>11111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
